--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>19.29312491236513</v>
+        <v>6.033573056648179</v>
       </c>
       <c r="C2">
-        <v>1.454223082704896</v>
+        <v>0.4547817551598747</v>
       </c>
       <c r="D2">
-        <v>6.944727245459195</v>
+        <v>2.171836827071911</v>
       </c>
       <c r="E2">
-        <v>3.11874939826272</v>
+        <v>0.9753320120648559</v>
       </c>
       <c r="F2">
-        <v>6.367256072547888</v>
+        <v>1.991243246421033</v>
       </c>
       <c r="G2">
-        <v>10.72499613714941</v>
+        <v>3.354046999627689</v>
       </c>
       <c r="H2">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="I2">
-        <v>48.82251516456285</v>
+        <v>15.2683514667916</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>19.0738848565428</v>
+        <v>5.965009726458995</v>
       </c>
       <c r="C3">
-        <v>1.545112025373952</v>
+        <v>0.4832056148573668</v>
       </c>
       <c r="D3">
-        <v>7.93683113766765</v>
+        <v>2.482099230939327</v>
       </c>
       <c r="E3">
-        <v>3.018144578963924</v>
+        <v>0.9438696890950217</v>
       </c>
       <c r="F3">
-        <v>6.422383830751765</v>
+        <v>2.008483447688747</v>
       </c>
       <c r="G3">
-        <v>12.05179978298233</v>
+        <v>3.768980649066168</v>
       </c>
       <c r="H3">
-        <v>0.9735229229014749</v>
+        <v>0.3044515444920559</v>
       </c>
       <c r="I3">
-        <v>51.02167913518389</v>
+        <v>15.95609990259768</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>21.56225949012624</v>
+        <v>6.743203524106232</v>
       </c>
       <c r="C4">
-        <v>1.57540833959697</v>
+        <v>0.4926802347565309</v>
       </c>
       <c r="D4">
-        <v>8.631303862213572</v>
+        <v>2.699282913646518</v>
       </c>
       <c r="E4">
-        <v>3.52116867545791</v>
+        <v>1.101181303944192</v>
       </c>
       <c r="F4">
-        <v>7.580066753033201</v>
+        <v>2.370527674310754</v>
       </c>
       <c r="G4">
-        <v>9.177058550344343</v>
+        <v>2.869957741949467</v>
       </c>
       <c r="H4">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="I4">
-        <v>52.58811173905083</v>
+        <v>16.44597313965372</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>23.27233192554042</v>
+        <v>7.277997499581867</v>
       </c>
       <c r="C5">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="D5">
-        <v>8.829724640655263</v>
+        <v>2.761335394420001</v>
       </c>
       <c r="E5">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="F5">
-        <v>6.587767105363397</v>
+        <v>2.060204051491891</v>
       </c>
       <c r="G5">
-        <v>6.191750347220278</v>
+        <v>1.936357030712893</v>
       </c>
       <c r="H5">
-        <v>0.378592247795018</v>
+        <v>0.1183978228580217</v>
       </c>
       <c r="I5">
-        <v>49.9823229499895</v>
+        <v>15.63106020562095</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>28.26004319549846</v>
+        <v>8.837813261385801</v>
       </c>
       <c r="C6">
-        <v>1.484519396927914</v>
+        <v>0.4642563750590387</v>
       </c>
       <c r="D6">
-        <v>6.250254520913275</v>
+        <v>1.954653144364719</v>
       </c>
       <c r="E6">
-        <v>6.941732531617025</v>
+        <v>2.170900284918551</v>
       </c>
       <c r="F6">
-        <v>4.713423326431553</v>
+        <v>1.474037208389595</v>
       </c>
       <c r="G6">
-        <v>3.427576085068368</v>
+        <v>1.071911927716066</v>
       </c>
       <c r="H6">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="I6">
-        <v>52.21332579984165</v>
+        <v>16.32876567040784</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>28.21619518433399</v>
+        <v>8.824100595347963</v>
       </c>
       <c r="C7">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="D7">
-        <v>4.464467514938054</v>
+        <v>1.396180817403372</v>
       </c>
       <c r="E7">
-        <v>7.645966266708605</v>
+        <v>2.391136545707388</v>
       </c>
       <c r="F7">
-        <v>2.701260151990013</v>
+        <v>0.844769862118014</v>
       </c>
       <c r="G7">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="H7">
-        <v>0.6490152819343167</v>
+        <v>0.2029676963280372</v>
       </c>
       <c r="I7">
-        <v>46.15340944121763</v>
+        <v>14.4336373159803</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>19.70968101842756</v>
+        <v>6.163843384007623</v>
       </c>
       <c r="C8">
-        <v>0.8482967982445224</v>
+        <v>0.2652893571765936</v>
       </c>
       <c r="D8">
-        <v>3.86920517961298</v>
+        <v>1.210023375082922</v>
       </c>
       <c r="E8">
-        <v>4.929636145641075</v>
+        <v>1.541653825521869</v>
       </c>
       <c r="F8">
-        <v>2.067290932645418</v>
+        <v>0.6465075475392963</v>
       </c>
       <c r="G8">
-        <v>1.990205468749376</v>
+        <v>0.6224004741577157</v>
       </c>
       <c r="H8">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I8">
-        <v>33.46840015014879</v>
+        <v>10.46663193818002</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>16.0922200973591</v>
+        <v>5.032548435886093</v>
       </c>
       <c r="C9">
-        <v>0.7574078555754664</v>
+        <v>0.2368654974791014</v>
       </c>
       <c r="D9">
-        <v>2.777890898183678</v>
+        <v>0.8687347308287645</v>
       </c>
       <c r="E9">
-        <v>7.344151808812213</v>
+        <v>2.296749576797886</v>
       </c>
       <c r="F9">
-        <v>1.185246801383373</v>
+        <v>0.3706643272558632</v>
       </c>
       <c r="G9">
-        <v>1.105669704860764</v>
+        <v>0.345778041198731</v>
       </c>
       <c r="H9">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I9">
-        <v>29.42484098665816</v>
+        <v>9.202082533528449</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>11.90473503115257</v>
+        <v>3.722988829272683</v>
       </c>
       <c r="C10">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="D10">
-        <v>2.182628562858604</v>
+        <v>0.6825772885083147</v>
       </c>
       <c r="E10">
-        <v>4.829031326342276</v>
+        <v>1.510191502552035</v>
       </c>
       <c r="F10">
-        <v>1.074991284975617</v>
+        <v>0.3361839247204341</v>
       </c>
       <c r="G10">
-        <v>1.105669704860764</v>
+        <v>0.345778041198731</v>
       </c>
       <c r="H10">
-        <v>0.2163384273114389</v>
+        <v>0.06765589877601241</v>
       </c>
       <c r="I10">
-        <v>21.85872799351561</v>
+        <v>6.835918643213162</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>9.131348325000085</v>
+        <v>2.855662702379506</v>
       </c>
       <c r="C11">
-        <v>0.8785931124675411</v>
+        <v>0.2747639770757576</v>
       </c>
       <c r="D11">
-        <v>2.182628562858604</v>
+        <v>0.6825772885083147</v>
       </c>
       <c r="E11">
-        <v>2.213306024573543</v>
+        <v>0.6921711053363493</v>
       </c>
       <c r="F11">
-        <v>1.102555164077556</v>
+        <v>0.3448040253542914</v>
       </c>
       <c r="G11">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="H11">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I11">
-        <v>17.32918956675206</v>
+        <v>5.419388084534326</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>5.623507431842789</v>
+        <v>1.758649419352565</v>
       </c>
       <c r="C12">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="D12">
-        <v>0.4960519461042281</v>
+        <v>0.1551312019337079</v>
       </c>
       <c r="E12">
-        <v>0.8048385543903798</v>
+        <v>0.2516985837586725</v>
       </c>
       <c r="F12">
-        <v>0.6615330984465339</v>
+        <v>0.2068824152125748</v>
       </c>
       <c r="G12">
-        <v>1.769071527777222</v>
+        <v>0.5532448659179696</v>
       </c>
       <c r="I12">
-        <v>10.17300304258266</v>
+        <v>3.18142122345292</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>3.507840893157296</v>
+        <v>1.097013283026942</v>
       </c>
       <c r="C13">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="D13">
-        <v>0.3968415568833825</v>
+        <v>0.1241049615469664</v>
       </c>
       <c r="E13">
-        <v>0.4024192771951899</v>
+        <v>0.1258492918793362</v>
       </c>
       <c r="F13">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="G13">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="H13">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I13">
-        <v>7.901513391976534</v>
+        <v>2.471054249901191</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>2.203362561014426</v>
+        <v>0.6890614684012973</v>
       </c>
       <c r="C14">
-        <v>0.8180004840215038</v>
+        <v>0.2558147372774295</v>
       </c>
       <c r="D14">
-        <v>0.3968415568833825</v>
+        <v>0.1241049615469664</v>
       </c>
       <c r="E14">
-        <v>0.3018144578963923</v>
+        <v>0.09438696890950217</v>
       </c>
       <c r="F14">
-        <v>0.7442247357523505</v>
+        <v>0.2327427171141467</v>
       </c>
       <c r="G14">
-        <v>3.538143055554445</v>
+        <v>1.106489731835939</v>
       </c>
       <c r="H14">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I14">
-        <v>8.05647145795036</v>
+        <v>2.519514559779285</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>1.633338415876366</v>
+        <v>0.5107968099094196</v>
       </c>
       <c r="C15">
-        <v>0.5150373417913172</v>
+        <v>0.161068538285789</v>
       </c>
       <c r="D15">
-        <v>0.2976311676625368</v>
+        <v>0.09307872116022477</v>
       </c>
       <c r="F15">
-        <v>0.4961498238349004</v>
+        <v>0.1551618114094311</v>
       </c>
       <c r="G15">
-        <v>2.76417426215191</v>
+        <v>0.8644451029968273</v>
       </c>
       <c r="H15">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I15">
-        <v>5.814500224972749</v>
+        <v>1.818378933149698</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>1.721034438205298</v>
+        <v>0.5382221419850933</v>
       </c>
       <c r="C16">
-        <v>0.2726668280071679</v>
+        <v>0.08527157909247648</v>
       </c>
       <c r="D16">
-        <v>0.9921038922084563</v>
+        <v>0.3102624038674159</v>
       </c>
       <c r="E16">
-        <v>0.5030240964939872</v>
+        <v>0.1573116148491703</v>
       </c>
       <c r="F16">
-        <v>0.5788414611407171</v>
+        <v>0.181022113311003</v>
       </c>
       <c r="G16">
-        <v>3.206442144096216</v>
+        <v>1.00275631947632</v>
       </c>
       <c r="H16">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I16">
-        <v>7.328197466979702</v>
+        <v>2.291760147275482</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>3.935359002010842</v>
+        <v>1.230711776895851</v>
       </c>
       <c r="C17">
-        <v>0.2726668280071679</v>
+        <v>0.08527157909247648</v>
       </c>
       <c r="D17">
-        <v>0.9921038922084563</v>
+        <v>0.3102624038674159</v>
       </c>
       <c r="E17">
-        <v>0.3018144578963923</v>
+        <v>0.09438696890950217</v>
       </c>
       <c r="F17">
-        <v>1.047427405873679</v>
+        <v>0.3275638240865769</v>
       </c>
       <c r="G17">
-        <v>4.312111848956981</v>
+        <v>1.348534360675051</v>
       </c>
       <c r="H17">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I17">
-        <v>10.96965264860924</v>
+        <v>3.43055886291488</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>8.396894137995279</v>
+        <v>2.625975546245741</v>
       </c>
       <c r="C18">
-        <v>0.4544447133452799</v>
+        <v>0.1421192984874608</v>
       </c>
       <c r="D18">
-        <v>2.083418173637758</v>
+        <v>0.6515510481215732</v>
       </c>
       <c r="E18">
-        <v>3.420563856159113</v>
+        <v>1.069718980974357</v>
       </c>
       <c r="F18">
-        <v>2.425621360970624</v>
+        <v>0.758568855779441</v>
       </c>
       <c r="G18">
-        <v>5.638915494789897</v>
+        <v>1.763468010113528</v>
       </c>
       <c r="H18">
-        <v>0.3245076409671583</v>
+        <v>0.1014838481640186</v>
       </c>
       <c r="I18">
-        <v>22.74436537786511</v>
+        <v>7.112885587886121</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>14.64523572893171</v>
+        <v>4.580030456637481</v>
       </c>
       <c r="C19">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="D19">
-        <v>5.45657140714651</v>
+        <v>1.706443221270787</v>
       </c>
       <c r="E19">
-        <v>9.356248194788163</v>
+        <v>2.925996036194567</v>
       </c>
       <c r="F19">
-        <v>4.465348414514104</v>
+        <v>1.39645630268488</v>
       </c>
       <c r="G19">
-        <v>7.960821874997503</v>
+        <v>2.489601896630863</v>
       </c>
       <c r="H19">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="I19">
-        <v>42.97040534467092</v>
+        <v>13.43821081854356</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>24.93855634979013</v>
+        <v>7.799078809019661</v>
       </c>
       <c r="C20">
-        <v>0.6059262844603731</v>
+        <v>0.1894923979832812</v>
       </c>
       <c r="D20">
-        <v>6.746306467017504</v>
+        <v>2.109784346298428</v>
       </c>
       <c r="E20">
-        <v>9.155038556190565</v>
+        <v>2.8630713902549</v>
       </c>
       <c r="F20">
-        <v>5.071753754756759</v>
+        <v>1.58609851662974</v>
       </c>
       <c r="G20">
-        <v>10.94613007812157</v>
+        <v>3.423202607867435</v>
       </c>
       <c r="H20">
-        <v>1.081692136557195</v>
+        <v>0.3382794938800621</v>
       </c>
       <c r="I20">
-        <v>58.5454036268941</v>
+        <v>18.30900756193351</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>26.28688269309748</v>
+        <v>8.22074328968314</v>
       </c>
       <c r="C21">
-        <v>0.9088894266905598</v>
+        <v>0.2842385969749217</v>
       </c>
       <c r="D21">
-        <v>5.357361017925665</v>
+        <v>1.675416980884046</v>
       </c>
       <c r="E21">
-        <v>6.338103615824239</v>
+        <v>1.982126347099546</v>
       </c>
       <c r="F21">
-        <v>4.382656777208286</v>
+        <v>1.370596000783308</v>
       </c>
       <c r="G21">
-        <v>8.955924609372191</v>
+        <v>2.800802133709721</v>
       </c>
       <c r="H21">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="I21">
-        <v>52.98700263570846</v>
+        <v>16.57071899485073</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>21.14570338406382</v>
+        <v>6.612933196746781</v>
       </c>
       <c r="C22">
-        <v>1.302741511589802</v>
+        <v>0.4074086556640544</v>
       </c>
       <c r="D22">
-        <v>9.325776586759492</v>
+        <v>2.916466596353709</v>
       </c>
       <c r="E22">
-        <v>4.929636145641075</v>
+        <v>1.541653825521869</v>
       </c>
       <c r="F22">
-        <v>7.359555720217688</v>
+        <v>2.301566869239895</v>
       </c>
       <c r="G22">
-        <v>15.81107677950893</v>
+        <v>4.94462598914185</v>
       </c>
       <c r="H22">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="I22">
-        <v>60.79392844385443</v>
+        <v>19.01219270246622</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>16.60743422854156</v>
+        <v>5.193672261830677</v>
       </c>
       <c r="C23">
-        <v>1.302741511589802</v>
+        <v>0.4074086556640544</v>
       </c>
       <c r="D23">
-        <v>7.539989580784269</v>
+        <v>2.357994269392361</v>
       </c>
       <c r="E23">
-        <v>3.018144578963924</v>
+        <v>0.9438696890950217</v>
       </c>
       <c r="F23">
-        <v>7.249300203809933</v>
+        <v>2.267086466704466</v>
       </c>
       <c r="G23">
-        <v>15.36880889756462</v>
+        <v>4.806314772662359</v>
       </c>
       <c r="H23">
-        <v>0.5408460682785973</v>
+        <v>0.169139746940031</v>
       </c>
       <c r="I23">
-        <v>51.6272650695327</v>
+        <v>16.14548586228897</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>18.86560680351158</v>
+        <v>5.899874562779269</v>
       </c>
       <c r="C24">
-        <v>1.333037825812821</v>
+        <v>0.4168832755632184</v>
       </c>
       <c r="D24">
-        <v>7.837620748446807</v>
+        <v>2.451072990552585</v>
       </c>
       <c r="E24">
-        <v>4.627821687744682</v>
+        <v>1.447266856612366</v>
       </c>
       <c r="F24">
-        <v>7.524938994829323</v>
+        <v>2.353287473043039</v>
       </c>
       <c r="G24">
-        <v>13.5997373697874</v>
+        <v>4.253069906744391</v>
       </c>
       <c r="H24">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="I24">
-        <v>54.92454017351766</v>
+        <v>17.17664853386893</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>18.09826660813342</v>
+        <v>5.659902907117127</v>
       </c>
       <c r="C25">
-        <v>1.242148883143765</v>
+        <v>0.3884594158657262</v>
       </c>
       <c r="D25">
-        <v>5.654992185588199</v>
+        <v>1.768495702044271</v>
       </c>
       <c r="E25">
-        <v>4.426612049147087</v>
+        <v>1.384342210672699</v>
       </c>
       <c r="F25">
-        <v>5.071753754756759</v>
+        <v>1.58609851662974</v>
       </c>
       <c r="G25">
-        <v>11.94123281249625</v>
+        <v>3.734402844946294</v>
       </c>
       <c r="H25">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="I25">
-        <v>47.13810618202766</v>
+        <v>14.7415832682979</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>18.20788663604458</v>
+        <v>5.694184572211719</v>
       </c>
       <c r="C26">
-        <v>1.090667312028672</v>
+        <v>0.3410863163699059</v>
       </c>
       <c r="D26">
-        <v>5.357361017925665</v>
+        <v>1.675416980884046</v>
       </c>
       <c r="E26">
-        <v>3.11874939826272</v>
+        <v>0.9753320120648559</v>
       </c>
       <c r="F26">
-        <v>6.449947709853703</v>
+        <v>2.017103548322605</v>
       </c>
       <c r="G26">
-        <v>12.49406766492663</v>
+        <v>3.907291865545659</v>
       </c>
       <c r="H26">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="I26">
-        <v>47.85445648242703</v>
+        <v>14.96560876397286</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>19.63294699888973</v>
+        <v>6.139846218441412</v>
       </c>
       <c r="C27">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="D27">
-        <v>8.532093472992724</v>
+        <v>2.668256673259777</v>
       </c>
       <c r="E27">
-        <v>4.527216868445885</v>
+        <v>1.415804533642532</v>
       </c>
       <c r="F27">
-        <v>6.229436677038192</v>
+        <v>1.948142743251746</v>
       </c>
       <c r="G27">
-        <v>9.729893402774723</v>
+        <v>3.042846762548832</v>
       </c>
       <c r="H27">
-        <v>0.811269102417896</v>
+        <v>0.2537096204100465</v>
       </c>
       <c r="I27">
-        <v>50.64441277725687</v>
+        <v>15.83811672762174</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>20.17008513565445</v>
+        <v>6.30782637740491</v>
       </c>
       <c r="C28">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="D28">
-        <v>8.829724640655263</v>
+        <v>2.761335394420001</v>
       </c>
       <c r="E28">
-        <v>3.621773494756708</v>
+        <v>1.132643626914026</v>
       </c>
       <c r="F28">
-        <v>6.091617281528498</v>
+        <v>1.90504224008246</v>
       </c>
       <c r="G28">
-        <v>11.49896493055195</v>
+        <v>3.596091628466801</v>
       </c>
       <c r="H28">
-        <v>0.811269102417896</v>
+        <v>0.2537096204100465</v>
       </c>
       <c r="I28">
-        <v>52.0535092691474</v>
+        <v>16.27878596426982</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>23.28329392833155</v>
+        <v>7.281425666091322</v>
       </c>
       <c r="C29">
-        <v>0.9997783693596159</v>
+        <v>0.3126624566724139</v>
       </c>
       <c r="D29">
-        <v>6.647096077796659</v>
+        <v>2.078758105911687</v>
       </c>
       <c r="E29">
-        <v>4.929636145641075</v>
+        <v>1.541653825521869</v>
       </c>
       <c r="F29">
-        <v>5.705722974101356</v>
+        <v>1.784360831208458</v>
       </c>
       <c r="G29">
-        <v>7.850254904511428</v>
+        <v>2.45502409251099</v>
       </c>
       <c r="H29">
-        <v>1.027607529729335</v>
+        <v>0.321365519186059</v>
       </c>
       <c r="I29">
-        <v>50.44338992947102</v>
+        <v>15.7752504971028</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>27.8325250866449</v>
+        <v>8.704114767516884</v>
       </c>
       <c r="C30">
-        <v>0.8482967982445224</v>
+        <v>0.2652893571765936</v>
       </c>
       <c r="D30">
-        <v>6.845516856238347</v>
+        <v>2.14081058668517</v>
       </c>
       <c r="E30">
-        <v>6.941732531617025</v>
+        <v>2.170900284918551</v>
       </c>
       <c r="F30">
-        <v>4.933934359247065</v>
+        <v>1.542998013460454</v>
       </c>
       <c r="G30">
-        <v>4.754379730901285</v>
+        <v>1.486845577154543</v>
       </c>
       <c r="H30">
-        <v>0.6490152819343167</v>
+        <v>0.2029676963280372</v>
       </c>
       <c r="I30">
-        <v>52.80540064482747</v>
+        <v>16.51392628324023</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>29.0821934048322</v>
+        <v>9.094925749595236</v>
       </c>
       <c r="C31">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="D31">
-        <v>5.654992185588199</v>
+        <v>1.768495702044271</v>
       </c>
       <c r="E31">
-        <v>8.048385543903795</v>
+        <v>2.516985837586724</v>
       </c>
       <c r="F31">
-        <v>3.555740404150118</v>
+        <v>1.11199298176759</v>
       </c>
       <c r="G31">
-        <v>2.211339409721528</v>
+        <v>0.6915560823974619</v>
       </c>
       <c r="H31">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I31">
-        <v>49.69089484543419</v>
+        <v>15.53992137935087</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>21.91304357944197</v>
+        <v>6.852904852408923</v>
       </c>
       <c r="C32">
-        <v>0.5453336560143358</v>
+        <v>0.170543158184953</v>
       </c>
       <c r="D32">
-        <v>3.86920517961298</v>
+        <v>1.210023375082922</v>
       </c>
       <c r="E32">
-        <v>5.633869880732657</v>
+        <v>1.761890086310707</v>
       </c>
       <c r="F32">
-        <v>2.067290932645418</v>
+        <v>0.6465075475392963</v>
       </c>
       <c r="G32">
-        <v>2.874741232637986</v>
+        <v>0.8990229071167003</v>
       </c>
       <c r="H32">
-        <v>0.2704230341392986</v>
+        <v>0.08456987347001552</v>
       </c>
       <c r="I32">
-        <v>37.17390749522465</v>
+        <v>11.62546180011352</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>17.05687634297735</v>
+        <v>5.334227088718499</v>
       </c>
       <c r="C33">
-        <v>0.9694820551365971</v>
+        <v>0.3031878367732497</v>
       </c>
       <c r="D33">
-        <v>4.067625958054672</v>
+        <v>1.272075855856405</v>
       </c>
       <c r="E33">
-        <v>7.344151808812213</v>
+        <v>2.296749576797886</v>
       </c>
       <c r="F33">
-        <v>1.791652141626029</v>
+        <v>0.5603065412007233</v>
       </c>
       <c r="G33">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="H33">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I33">
-        <v>33.05054668438159</v>
+        <v>10.33595588522687</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>13.72442749447791</v>
+        <v>4.292064469842908</v>
       </c>
       <c r="C34">
-        <v>0.6665189129064105</v>
+        <v>0.2084416377816092</v>
       </c>
       <c r="D34">
-        <v>3.273942844287906</v>
+        <v>1.023865932762472</v>
       </c>
       <c r="E34">
-        <v>4.728426507043481</v>
+        <v>1.478729179582201</v>
       </c>
       <c r="F34">
-        <v>1.01986352677174</v>
+        <v>0.3189437234527195</v>
       </c>
       <c r="G34">
-        <v>1.54793758680507</v>
+        <v>0.4840892576782232</v>
       </c>
       <c r="H34">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I34">
-        <v>25.06928608594824</v>
+        <v>7.83996215048814</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>9.767144486884838</v>
+        <v>3.05449635992814</v>
       </c>
       <c r="C35">
-        <v>0.9088894266905598</v>
+        <v>0.2842385969749217</v>
       </c>
       <c r="D35">
-        <v>2.480259730521141</v>
+        <v>0.7756560096685398</v>
       </c>
       <c r="E35">
-        <v>2.816934940366329</v>
+        <v>0.8809450431553534</v>
       </c>
       <c r="F35">
-        <v>0.8820441312620448</v>
+        <v>0.2758432202834331</v>
       </c>
       <c r="G35">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="H35">
-        <v>0.1622538204835792</v>
+        <v>0.05074192408200931</v>
       </c>
       <c r="I35">
-        <v>18.67603109349963</v>
+        <v>5.840588215890494</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>5.831785484874003</v>
+        <v>1.82378458303229</v>
       </c>
       <c r="C36">
-        <v>1.181556254697728</v>
+        <v>0.3695101760673983</v>
       </c>
       <c r="D36">
-        <v>0.8928935029876105</v>
+        <v>0.2792361634806743</v>
       </c>
       <c r="E36">
-        <v>1.710281928079556</v>
+        <v>0.5348594904871787</v>
       </c>
       <c r="F36">
-        <v>0.8269163730581672</v>
+        <v>0.2586030190157185</v>
       </c>
       <c r="G36">
-        <v>1.21623667534684</v>
+        <v>0.3803558453186041</v>
       </c>
       <c r="H36">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I36">
-        <v>11.71375482587177</v>
+        <v>3.663263252095867</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>4.669813189015648</v>
+        <v>1.460398933029616</v>
       </c>
       <c r="C37">
-        <v>0.8785931124675411</v>
+        <v>0.2747639770757576</v>
       </c>
       <c r="D37">
-        <v>0.793683113766765</v>
+        <v>0.2482099230939327</v>
       </c>
       <c r="E37">
-        <v>1.106653012286772</v>
+        <v>0.3460855526681746</v>
       </c>
       <c r="F37">
-        <v>0.7717886148542895</v>
+        <v>0.241362817748004</v>
       </c>
       <c r="G37">
-        <v>1.437370616318993</v>
+        <v>0.4495114535583501</v>
       </c>
       <c r="H37">
-        <v>0.2704230341392986</v>
+        <v>0.08456987347001552</v>
       </c>
       <c r="I37">
-        <v>9.928324692849309</v>
+        <v>3.104902530643851</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>2.455488625210107</v>
+        <v>0.7679092981188596</v>
       </c>
       <c r="C38">
-        <v>1.030074683582634</v>
+        <v>0.3221370765715779</v>
       </c>
       <c r="D38">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="E38">
-        <v>0.2012096385975949</v>
+        <v>0.06292464593966812</v>
       </c>
       <c r="F38">
-        <v>0.7166608566504116</v>
+        <v>0.2241226164802894</v>
       </c>
       <c r="G38">
-        <v>2.432473350693681</v>
+        <v>0.7607116906372081</v>
       </c>
       <c r="H38">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I38">
-        <v>7.485254096887361</v>
+        <v>2.340876744762056</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>1.622376413085249</v>
+        <v>0.5073686433999604</v>
       </c>
       <c r="C39">
-        <v>0.5756299702373545</v>
+        <v>0.1800177780841171</v>
       </c>
       <c r="D39">
-        <v>0.5952623353250736</v>
+        <v>0.1861574423204495</v>
       </c>
       <c r="E39">
-        <v>0.2012096385975949</v>
+        <v>0.06292464593966812</v>
       </c>
       <c r="F39">
-        <v>0.4410220656310224</v>
+        <v>0.1379216101417166</v>
       </c>
       <c r="G39">
-        <v>1.658504557291146</v>
+        <v>0.5186670617980963</v>
       </c>
       <c r="H39">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I39">
-        <v>5.1480895869953</v>
+        <v>1.609971156378011</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>1.622376413085249</v>
+        <v>0.5073686433999604</v>
       </c>
       <c r="C40">
-        <v>0.3635557706762239</v>
+        <v>0.1136954387899687</v>
       </c>
       <c r="D40">
-        <v>0.6944727245459195</v>
+        <v>0.2171836827071911</v>
       </c>
       <c r="E40">
-        <v>0.6036289157927845</v>
+        <v>0.1887739378190043</v>
       </c>
       <c r="F40">
-        <v>0.7442247357523505</v>
+        <v>0.2327427171141467</v>
       </c>
       <c r="G40">
-        <v>2.653607291665834</v>
+        <v>0.8298672988769544</v>
       </c>
       <c r="H40">
-        <v>0.05408460682785973</v>
+        <v>0.0169139746940031</v>
       </c>
       <c r="I40">
-        <v>6.735950458346221</v>
+        <v>2.106545693401229</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>3.738042951770743</v>
+        <v>1.169004779725584</v>
       </c>
       <c r="C41">
-        <v>0.3029631422301866</v>
+        <v>0.09474619899164059</v>
       </c>
       <c r="D41">
-        <v>1.686576616754376</v>
+        <v>0.5274460865746069</v>
       </c>
       <c r="E41">
-        <v>0.6036289157927845</v>
+        <v>0.1887739378190043</v>
       </c>
       <c r="F41">
-        <v>1.157682922281434</v>
+        <v>0.3620442266220059</v>
       </c>
       <c r="G41">
-        <v>5.086080642359514</v>
+        <v>1.590578989514162</v>
       </c>
       <c r="H41">
-        <v>0.1081692136557195</v>
+        <v>0.03382794938800621</v>
       </c>
       <c r="I41">
-        <v>12.68314440484476</v>
+        <v>3.96642216863501</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>7.936490020768378</v>
+        <v>2.481992552848456</v>
       </c>
       <c r="C42">
-        <v>0.09088894266905598</v>
+        <v>0.02842385969749217</v>
       </c>
       <c r="D42">
-        <v>2.28183895207945</v>
+        <v>0.7136035288950564</v>
       </c>
       <c r="E42">
-        <v>4.024192771951897</v>
+        <v>1.258492918793362</v>
       </c>
       <c r="F42">
-        <v>2.315365844562868</v>
+        <v>0.7240884532440118</v>
       </c>
       <c r="G42">
-        <v>5.638915494789897</v>
+        <v>1.763468010113528</v>
       </c>
       <c r="H42">
-        <v>0.2163384273114389</v>
+        <v>0.06765589877601241</v>
       </c>
       <c r="I42">
-        <v>22.50403045413298</v>
+        <v>7.03772522236792</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>14.70004574288729</v>
+        <v>4.597171289184777</v>
       </c>
       <c r="C43">
-        <v>0.4241483991222612</v>
+        <v>0.1326446785882968</v>
       </c>
       <c r="D43">
-        <v>5.555781796367356</v>
+        <v>1.737469461657529</v>
       </c>
       <c r="E43">
-        <v>9.658062652684553</v>
+        <v>3.020383005104069</v>
       </c>
       <c r="F43">
-        <v>5.016625996552881</v>
+        <v>1.568858315362026</v>
       </c>
       <c r="G43">
-        <v>7.850254904511428</v>
+        <v>2.45502409251099</v>
       </c>
       <c r="H43">
-        <v>0.7571844955900361</v>
+        <v>0.2367956457160434</v>
       </c>
       <c r="I43">
-        <v>43.96210398771581</v>
+        <v>13.74834648812373</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>24.86182233025232</v>
+        <v>7.775081643453447</v>
       </c>
       <c r="C44">
-        <v>0.3635557706762239</v>
+        <v>0.1136954387899687</v>
       </c>
       <c r="D44">
-        <v>6.448675299354967</v>
+        <v>2.016705625138203</v>
       </c>
       <c r="E44">
-        <v>11.26773976146531</v>
+        <v>3.523780172621414</v>
       </c>
       <c r="F44">
-        <v>5.347392545776148</v>
+        <v>1.672299522968313</v>
       </c>
       <c r="G44">
-        <v>10.83556310763549</v>
+        <v>3.388624803747564</v>
       </c>
       <c r="H44">
-        <v>1.135776743385054</v>
+        <v>0.3551934685740652</v>
       </c>
       <c r="I44">
-        <v>60.26052555854552</v>
+        <v>18.84538067529298</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>28.11753715921394</v>
+        <v>8.79324709676283</v>
       </c>
       <c r="C45">
-        <v>1.060370997805653</v>
+        <v>0.3316116964707419</v>
       </c>
       <c r="D45">
-        <v>7.837620748446807</v>
+        <v>2.451072990552585</v>
       </c>
       <c r="E45">
-        <v>8.048385543903795</v>
+        <v>2.516985837586724</v>
       </c>
       <c r="F45">
-        <v>6.03648952332462</v>
+        <v>1.887802038814745</v>
       </c>
       <c r="G45">
-        <v>11.83066584201018</v>
+        <v>3.699825040826421</v>
       </c>
       <c r="H45">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="I45">
-        <v>63.8505081307786</v>
+        <v>19.9680822708121</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>22.51595373295339</v>
+        <v>7.041454010429177</v>
       </c>
       <c r="C46">
-        <v>1.302741511589802</v>
+        <v>0.4074086556640544</v>
       </c>
       <c r="D46">
-        <v>9.1273558083178</v>
+        <v>2.854414115580226</v>
       </c>
       <c r="E46">
-        <v>5.633869880732657</v>
+        <v>1.761890086310707</v>
       </c>
       <c r="F46">
-        <v>7.30442796201381</v>
+        <v>2.28432666797218</v>
       </c>
       <c r="G46">
-        <v>18.02241618923046</v>
+        <v>5.636182071539312</v>
       </c>
       <c r="H46">
-        <v>0.9194383160736154</v>
+        <v>0.2875375697980528</v>
       </c>
       <c r="I46">
-        <v>64.82620340091152</v>
+        <v>20.27321317729371</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>17.00206632902177</v>
+        <v>5.31708625617121</v>
       </c>
       <c r="C47">
-        <v>1.454223082704896</v>
+        <v>0.4547817551598747</v>
       </c>
       <c r="D47">
-        <v>6.746306467017504</v>
+        <v>2.109784346298428</v>
       </c>
       <c r="E47">
-        <v>3.722378314055505</v>
+        <v>1.16410594988386</v>
       </c>
       <c r="F47">
-        <v>7.80057778584871</v>
+        <v>2.439488479381612</v>
       </c>
       <c r="G47">
-        <v>13.71030434027347</v>
+        <v>4.287647710864264</v>
       </c>
       <c r="H47">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="I47">
-        <v>51.13895620768402</v>
+        <v>15.99277616878129</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>17.53920446578648</v>
+        <v>5.485066415134705</v>
       </c>
       <c r="C48">
-        <v>0.8785931124675411</v>
+        <v>0.2747639770757576</v>
       </c>
       <c r="D48">
-        <v>7.341568802342575</v>
+        <v>2.295941788618877</v>
       </c>
       <c r="E48">
-        <v>4.124797591250696</v>
+        <v>1.289955241763197</v>
       </c>
       <c r="F48">
-        <v>7.965961060460343</v>
+        <v>2.491209083184756</v>
       </c>
       <c r="G48">
-        <v>19.6809207465216</v>
+        <v>6.15484913333741</v>
       </c>
       <c r="H48">
-        <v>0.5949306751064569</v>
+        <v>0.1860537216340341</v>
       </c>
       <c r="I48">
-        <v>58.12597645393569</v>
+        <v>18.17783936074874</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>18.09826660813342</v>
+        <v>5.659902907117127</v>
       </c>
       <c r="C49">
-        <v>1.242148883143765</v>
+        <v>0.3884594158657262</v>
       </c>
       <c r="D49">
-        <v>5.654992185588199</v>
+        <v>1.768495702044271</v>
       </c>
       <c r="E49">
-        <v>4.426612049147087</v>
+        <v>1.384342210672699</v>
       </c>
       <c r="F49">
-        <v>5.071753754756759</v>
+        <v>1.58609851662974</v>
       </c>
       <c r="G49">
-        <v>11.94123281249625</v>
+        <v>3.734402844946294</v>
       </c>
       <c r="H49">
-        <v>0.7030998887621764</v>
+        <v>0.2198816710220403</v>
       </c>
       <c r="I49">
-        <v>47.13810618202766</v>
+        <v>14.7415832682979</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM25_재비산.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_PM25_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>6.033573056648179</v>
+        <v>19.29312491236513</v>
       </c>
       <c r="C2">
-        <v>0.4547817551598747</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="D2">
-        <v>2.171836827071911</v>
+        <v>6.944727245459195</v>
       </c>
       <c r="E2">
-        <v>0.9753320120648559</v>
+        <v>3.11874939826272</v>
       </c>
       <c r="F2">
-        <v>1.991243246421033</v>
+        <v>6.367256072547888</v>
       </c>
       <c r="G2">
-        <v>3.354046999627689</v>
+        <v>10.72499613714941</v>
       </c>
       <c r="H2">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="I2">
-        <v>15.2683514667916</v>
+        <v>48.82251516456285</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>5.965009726458995</v>
+        <v>19.0738848565428</v>
       </c>
       <c r="C3">
-        <v>0.4832056148573668</v>
+        <v>1.545112025373952</v>
       </c>
       <c r="D3">
-        <v>2.482099230939327</v>
+        <v>7.93683113766765</v>
       </c>
       <c r="E3">
-        <v>0.9438696890950217</v>
+        <v>3.018144578963924</v>
       </c>
       <c r="F3">
-        <v>2.008483447688747</v>
+        <v>6.422383830751765</v>
       </c>
       <c r="G3">
-        <v>3.768980649066168</v>
+        <v>12.05179978298233</v>
       </c>
       <c r="H3">
-        <v>0.3044515444920559</v>
+        <v>0.9735229229014749</v>
       </c>
       <c r="I3">
-        <v>15.95609990259768</v>
+        <v>51.02167913518389</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>6.743203524106232</v>
+        <v>21.56225949012624</v>
       </c>
       <c r="C4">
-        <v>0.4926802347565309</v>
+        <v>1.57540833959697</v>
       </c>
       <c r="D4">
-        <v>2.699282913646518</v>
+        <v>8.631303862213572</v>
       </c>
       <c r="E4">
-        <v>1.101181303944192</v>
+        <v>3.52116867545791</v>
       </c>
       <c r="F4">
-        <v>2.370527674310754</v>
+        <v>7.580066753033201</v>
       </c>
       <c r="G4">
-        <v>2.869957741949467</v>
+        <v>9.177058550344343</v>
       </c>
       <c r="H4">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="I4">
-        <v>16.44597313965372</v>
+        <v>52.58811173905083</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>7.277997499581867</v>
+        <v>23.27233192554042</v>
       </c>
       <c r="C5">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="D5">
-        <v>2.761335394420001</v>
+        <v>8.829724640655263</v>
       </c>
       <c r="E5">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="F5">
-        <v>2.060204051491891</v>
+        <v>6.587767105363397</v>
       </c>
       <c r="G5">
-        <v>1.936357030712893</v>
+        <v>6.191750347220278</v>
       </c>
       <c r="H5">
-        <v>0.1183978228580217</v>
+        <v>0.378592247795018</v>
       </c>
       <c r="I5">
-        <v>15.63106020562095</v>
+        <v>49.9823229499895</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>8.837813261385801</v>
+        <v>28.26004319549846</v>
       </c>
       <c r="C6">
-        <v>0.4642563750590387</v>
+        <v>1.484519396927914</v>
       </c>
       <c r="D6">
-        <v>1.954653144364719</v>
+        <v>6.250254520913275</v>
       </c>
       <c r="E6">
-        <v>2.170900284918551</v>
+        <v>6.941732531617025</v>
       </c>
       <c r="F6">
-        <v>1.474037208389595</v>
+        <v>4.713423326431553</v>
       </c>
       <c r="G6">
-        <v>1.071911927716066</v>
+        <v>3.427576085068368</v>
       </c>
       <c r="H6">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="I6">
-        <v>16.32876567040784</v>
+        <v>52.21332579984165</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>8.824100595347963</v>
+        <v>28.21619518433399</v>
       </c>
       <c r="C7">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="D7">
-        <v>1.396180817403372</v>
+        <v>4.464467514938054</v>
       </c>
       <c r="E7">
-        <v>2.391136545707388</v>
+        <v>7.645966266708605</v>
       </c>
       <c r="F7">
-        <v>0.844769862118014</v>
+        <v>2.701260151990013</v>
       </c>
       <c r="G7">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H7">
-        <v>0.2029676963280372</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="I7">
-        <v>14.4336373159803</v>
+        <v>46.15340944121763</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>6.163843384007623</v>
+        <v>19.70968101842756</v>
       </c>
       <c r="C8">
-        <v>0.2652893571765936</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="D8">
-        <v>1.210023375082922</v>
+        <v>3.86920517961298</v>
       </c>
       <c r="E8">
-        <v>1.541653825521869</v>
+        <v>4.929636145641075</v>
       </c>
       <c r="F8">
-        <v>0.6465075475392963</v>
+        <v>2.067290932645418</v>
       </c>
       <c r="G8">
-        <v>0.6224004741577157</v>
+        <v>1.990205468749376</v>
       </c>
       <c r="H8">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I8">
-        <v>10.46663193818002</v>
+        <v>33.46840015014879</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>5.032548435886093</v>
+        <v>16.0922200973591</v>
       </c>
       <c r="C9">
-        <v>0.2368654974791014</v>
+        <v>0.7574078555754664</v>
       </c>
       <c r="D9">
-        <v>0.8687347308287645</v>
+        <v>2.777890898183678</v>
       </c>
       <c r="E9">
-        <v>2.296749576797886</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="F9">
-        <v>0.3706643272558632</v>
+        <v>1.185246801383373</v>
       </c>
       <c r="G9">
-        <v>0.345778041198731</v>
+        <v>1.105669704860764</v>
       </c>
       <c r="H9">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I9">
-        <v>9.202082533528449</v>
+        <v>29.42484098665816</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>3.722988829272683</v>
+        <v>11.90473503115257</v>
       </c>
       <c r="C10">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D10">
-        <v>0.6825772885083147</v>
+        <v>2.182628562858604</v>
       </c>
       <c r="E10">
-        <v>1.510191502552035</v>
+        <v>4.829031326342276</v>
       </c>
       <c r="F10">
-        <v>0.3361839247204341</v>
+        <v>1.074991284975617</v>
       </c>
       <c r="G10">
-        <v>0.345778041198731</v>
+        <v>1.105669704860764</v>
       </c>
       <c r="H10">
-        <v>0.06765589877601241</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="I10">
-        <v>6.835918643213162</v>
+        <v>21.85872799351561</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>2.855662702379506</v>
+        <v>9.131348325000085</v>
       </c>
       <c r="C11">
-        <v>0.2747639770757576</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="D11">
-        <v>0.6825772885083147</v>
+        <v>2.182628562858604</v>
       </c>
       <c r="E11">
-        <v>0.6921711053363493</v>
+        <v>2.213306024573543</v>
       </c>
       <c r="F11">
-        <v>0.3448040253542914</v>
+        <v>1.102555164077556</v>
       </c>
       <c r="G11">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H11">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I11">
-        <v>5.419388084534326</v>
+        <v>17.32918956675206</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>1.758649419352565</v>
+        <v>5.623507431842789</v>
       </c>
       <c r="C12">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="D12">
-        <v>0.1551312019337079</v>
+        <v>0.4960519461042281</v>
       </c>
       <c r="E12">
-        <v>0.2516985837586725</v>
+        <v>0.8048385543903798</v>
       </c>
       <c r="F12">
-        <v>0.2068824152125748</v>
+        <v>0.6615330984465339</v>
       </c>
       <c r="G12">
-        <v>0.5532448659179696</v>
+        <v>1.769071527777222</v>
       </c>
       <c r="I12">
-        <v>3.18142122345292</v>
+        <v>10.17300304258266</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>1.097013283026942</v>
+        <v>3.507840893157296</v>
       </c>
       <c r="C13">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="D13">
-        <v>0.1241049615469664</v>
+        <v>0.3968415568833825</v>
       </c>
       <c r="E13">
-        <v>0.1258492918793362</v>
+        <v>0.4024192771951899</v>
       </c>
       <c r="F13">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="G13">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H13">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I13">
-        <v>2.471054249901191</v>
+        <v>7.901513391976534</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.6890614684012973</v>
+        <v>2.203362561014426</v>
       </c>
       <c r="C14">
-        <v>0.2558147372774295</v>
+        <v>0.8180004840215038</v>
       </c>
       <c r="D14">
-        <v>0.1241049615469664</v>
+        <v>0.3968415568833825</v>
       </c>
       <c r="E14">
-        <v>0.09438696890950217</v>
+        <v>0.3018144578963923</v>
       </c>
       <c r="F14">
-        <v>0.2327427171141467</v>
+        <v>0.7442247357523505</v>
       </c>
       <c r="G14">
-        <v>1.106489731835939</v>
+        <v>3.538143055554445</v>
       </c>
       <c r="H14">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I14">
-        <v>2.519514559779285</v>
+        <v>8.05647145795036</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.5107968099094196</v>
+        <v>1.633338415876366</v>
       </c>
       <c r="C15">
-        <v>0.161068538285789</v>
+        <v>0.5150373417913172</v>
       </c>
       <c r="D15">
-        <v>0.09307872116022477</v>
+        <v>0.2976311676625368</v>
       </c>
       <c r="F15">
-        <v>0.1551618114094311</v>
+        <v>0.4961498238349004</v>
       </c>
       <c r="G15">
-        <v>0.8644451029968273</v>
+        <v>2.76417426215191</v>
       </c>
       <c r="H15">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I15">
-        <v>1.818378933149698</v>
+        <v>5.814500224972749</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.5382221419850933</v>
+        <v>1.721034438205298</v>
       </c>
       <c r="C16">
-        <v>0.08527157909247648</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="D16">
-        <v>0.3102624038674159</v>
+        <v>0.9921038922084563</v>
       </c>
       <c r="E16">
-        <v>0.1573116148491703</v>
+        <v>0.5030240964939872</v>
       </c>
       <c r="F16">
-        <v>0.181022113311003</v>
+        <v>0.5788414611407171</v>
       </c>
       <c r="G16">
-        <v>1.00275631947632</v>
+        <v>3.206442144096216</v>
       </c>
       <c r="H16">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I16">
-        <v>2.291760147275482</v>
+        <v>7.328197466979702</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>1.230711776895851</v>
+        <v>3.935359002010842</v>
       </c>
       <c r="C17">
-        <v>0.08527157909247648</v>
+        <v>0.2726668280071679</v>
       </c>
       <c r="D17">
-        <v>0.3102624038674159</v>
+        <v>0.9921038922084563</v>
       </c>
       <c r="E17">
-        <v>0.09438696890950217</v>
+        <v>0.3018144578963923</v>
       </c>
       <c r="F17">
-        <v>0.3275638240865769</v>
+        <v>1.047427405873679</v>
       </c>
       <c r="G17">
-        <v>1.348534360675051</v>
+        <v>4.312111848956981</v>
       </c>
       <c r="H17">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I17">
-        <v>3.43055886291488</v>
+        <v>10.96965264860924</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>2.625975546245741</v>
+        <v>8.396894137995279</v>
       </c>
       <c r="C18">
-        <v>0.1421192984874608</v>
+        <v>0.4544447133452799</v>
       </c>
       <c r="D18">
-        <v>0.6515510481215732</v>
+        <v>2.083418173637758</v>
       </c>
       <c r="E18">
-        <v>1.069718980974357</v>
+        <v>3.420563856159113</v>
       </c>
       <c r="F18">
-        <v>0.758568855779441</v>
+        <v>2.425621360970624</v>
       </c>
       <c r="G18">
-        <v>1.763468010113528</v>
+        <v>5.638915494789897</v>
       </c>
       <c r="H18">
-        <v>0.1014838481640186</v>
+        <v>0.3245076409671583</v>
       </c>
       <c r="I18">
-        <v>7.112885587886121</v>
+        <v>22.74436537786511</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>4.580030456637481</v>
+        <v>14.64523572893171</v>
       </c>
       <c r="C19">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D19">
-        <v>1.706443221270787</v>
+        <v>5.45657140714651</v>
       </c>
       <c r="E19">
-        <v>2.925996036194567</v>
+        <v>9.356248194788163</v>
       </c>
       <c r="F19">
-        <v>1.39645630268488</v>
+        <v>4.465348414514104</v>
       </c>
       <c r="G19">
-        <v>2.489601896630863</v>
+        <v>7.960821874997503</v>
       </c>
       <c r="H19">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="I19">
-        <v>13.43821081854356</v>
+        <v>42.97040534467092</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>7.799078809019661</v>
+        <v>24.93855634979013</v>
       </c>
       <c r="C20">
-        <v>0.1894923979832812</v>
+        <v>0.6059262844603731</v>
       </c>
       <c r="D20">
-        <v>2.109784346298428</v>
+        <v>6.746306467017504</v>
       </c>
       <c r="E20">
-        <v>2.8630713902549</v>
+        <v>9.155038556190565</v>
       </c>
       <c r="F20">
-        <v>1.58609851662974</v>
+        <v>5.071753754756759</v>
       </c>
       <c r="G20">
-        <v>3.423202607867435</v>
+        <v>10.94613007812157</v>
       </c>
       <c r="H20">
-        <v>0.3382794938800621</v>
+        <v>1.081692136557195</v>
       </c>
       <c r="I20">
-        <v>18.30900756193351</v>
+        <v>58.5454036268941</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>8.22074328968314</v>
+        <v>26.28688269309748</v>
       </c>
       <c r="C21">
-        <v>0.2842385969749217</v>
+        <v>0.9088894266905598</v>
       </c>
       <c r="D21">
-        <v>1.675416980884046</v>
+        <v>5.357361017925665</v>
       </c>
       <c r="E21">
-        <v>1.982126347099546</v>
+        <v>6.338103615824239</v>
       </c>
       <c r="F21">
-        <v>1.370596000783308</v>
+        <v>4.382656777208286</v>
       </c>
       <c r="G21">
-        <v>2.800802133709721</v>
+        <v>8.955924609372191</v>
       </c>
       <c r="H21">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I21">
-        <v>16.57071899485073</v>
+        <v>52.98700263570846</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>6.612933196746781</v>
+        <v>21.14570338406382</v>
       </c>
       <c r="C22">
-        <v>0.4074086556640544</v>
+        <v>1.302741511589802</v>
       </c>
       <c r="D22">
-        <v>2.916466596353709</v>
+        <v>9.325776586759492</v>
       </c>
       <c r="E22">
-        <v>1.541653825521869</v>
+        <v>4.929636145641075</v>
       </c>
       <c r="F22">
-        <v>2.301566869239895</v>
+        <v>7.359555720217688</v>
       </c>
       <c r="G22">
-        <v>4.94462598914185</v>
+        <v>15.81107677950893</v>
       </c>
       <c r="H22">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="I22">
-        <v>19.01219270246622</v>
+        <v>60.79392844385443</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>5.193672261830677</v>
+        <v>16.60743422854156</v>
       </c>
       <c r="C23">
-        <v>0.4074086556640544</v>
+        <v>1.302741511589802</v>
       </c>
       <c r="D23">
-        <v>2.357994269392361</v>
+        <v>7.539989580784269</v>
       </c>
       <c r="E23">
-        <v>0.9438696890950217</v>
+        <v>3.018144578963924</v>
       </c>
       <c r="F23">
-        <v>2.267086466704466</v>
+        <v>7.249300203809933</v>
       </c>
       <c r="G23">
-        <v>4.806314772662359</v>
+        <v>15.36880889756462</v>
       </c>
       <c r="H23">
-        <v>0.169139746940031</v>
+        <v>0.5408460682785973</v>
       </c>
       <c r="I23">
-        <v>16.14548586228897</v>
+        <v>51.6272650695327</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>5.899874562779269</v>
+        <v>18.86560680351158</v>
       </c>
       <c r="C24">
-        <v>0.4168832755632184</v>
+        <v>1.333037825812821</v>
       </c>
       <c r="D24">
-        <v>2.451072990552585</v>
+        <v>7.837620748446807</v>
       </c>
       <c r="E24">
-        <v>1.447266856612366</v>
+        <v>4.627821687744682</v>
       </c>
       <c r="F24">
-        <v>2.353287473043039</v>
+        <v>7.524938994829323</v>
       </c>
       <c r="G24">
-        <v>4.253069906744391</v>
+        <v>13.5997373697874</v>
       </c>
       <c r="H24">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="I24">
-        <v>17.17664853386893</v>
+        <v>54.92454017351766</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>5.659902907117127</v>
+        <v>18.09826660813342</v>
       </c>
       <c r="C25">
-        <v>0.3884594158657262</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="D25">
-        <v>1.768495702044271</v>
+        <v>5.654992185588199</v>
       </c>
       <c r="E25">
-        <v>1.384342210672699</v>
+        <v>4.426612049147087</v>
       </c>
       <c r="F25">
-        <v>1.58609851662974</v>
+        <v>5.071753754756759</v>
       </c>
       <c r="G25">
-        <v>3.734402844946294</v>
+        <v>11.94123281249625</v>
       </c>
       <c r="H25">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I25">
-        <v>14.7415832682979</v>
+        <v>47.13810618202766</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>5.694184572211719</v>
+        <v>18.20788663604458</v>
       </c>
       <c r="C26">
-        <v>0.3410863163699059</v>
+        <v>1.090667312028672</v>
       </c>
       <c r="D26">
-        <v>1.675416980884046</v>
+        <v>5.357361017925665</v>
       </c>
       <c r="E26">
-        <v>0.9753320120648559</v>
+        <v>3.11874939826272</v>
       </c>
       <c r="F26">
-        <v>2.017103548322605</v>
+        <v>6.449947709853703</v>
       </c>
       <c r="G26">
-        <v>3.907291865545659</v>
+        <v>12.49406766492663</v>
       </c>
       <c r="H26">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="I26">
-        <v>14.96560876397286</v>
+        <v>47.85445648242703</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>6.139846218441412</v>
+        <v>19.63294699888973</v>
       </c>
       <c r="C27">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="D27">
-        <v>2.668256673259777</v>
+        <v>8.532093472992724</v>
       </c>
       <c r="E27">
-        <v>1.415804533642532</v>
+        <v>4.527216868445885</v>
       </c>
       <c r="F27">
-        <v>1.948142743251746</v>
+        <v>6.229436677038192</v>
       </c>
       <c r="G27">
-        <v>3.042846762548832</v>
+        <v>9.729893402774723</v>
       </c>
       <c r="H27">
-        <v>0.2537096204100465</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="I27">
-        <v>15.83811672762174</v>
+        <v>50.64441277725687</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>6.30782637740491</v>
+        <v>20.17008513565445</v>
       </c>
       <c r="C28">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D28">
-        <v>2.761335394420001</v>
+        <v>8.829724640655263</v>
       </c>
       <c r="E28">
-        <v>1.132643626914026</v>
+        <v>3.621773494756708</v>
       </c>
       <c r="F28">
-        <v>1.90504224008246</v>
+        <v>6.091617281528498</v>
       </c>
       <c r="G28">
-        <v>3.596091628466801</v>
+        <v>11.49896493055195</v>
       </c>
       <c r="H28">
-        <v>0.2537096204100465</v>
+        <v>0.811269102417896</v>
       </c>
       <c r="I28">
-        <v>16.27878596426982</v>
+        <v>52.0535092691474</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>7.281425666091322</v>
+        <v>23.28329392833155</v>
       </c>
       <c r="C29">
-        <v>0.3126624566724139</v>
+        <v>0.9997783693596159</v>
       </c>
       <c r="D29">
-        <v>2.078758105911687</v>
+        <v>6.647096077796659</v>
       </c>
       <c r="E29">
-        <v>1.541653825521869</v>
+        <v>4.929636145641075</v>
       </c>
       <c r="F29">
-        <v>1.784360831208458</v>
+        <v>5.705722974101356</v>
       </c>
       <c r="G29">
-        <v>2.45502409251099</v>
+        <v>7.850254904511428</v>
       </c>
       <c r="H29">
-        <v>0.321365519186059</v>
+        <v>1.027607529729335</v>
       </c>
       <c r="I29">
-        <v>15.7752504971028</v>
+        <v>50.44338992947102</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>8.704114767516884</v>
+        <v>27.8325250866449</v>
       </c>
       <c r="C30">
-        <v>0.2652893571765936</v>
+        <v>0.8482967982445224</v>
       </c>
       <c r="D30">
-        <v>2.14081058668517</v>
+        <v>6.845516856238347</v>
       </c>
       <c r="E30">
-        <v>2.170900284918551</v>
+        <v>6.941732531617025</v>
       </c>
       <c r="F30">
-        <v>1.542998013460454</v>
+        <v>4.933934359247065</v>
       </c>
       <c r="G30">
-        <v>1.486845577154543</v>
+        <v>4.754379730901285</v>
       </c>
       <c r="H30">
-        <v>0.2029676963280372</v>
+        <v>0.6490152819343167</v>
       </c>
       <c r="I30">
-        <v>16.51392628324023</v>
+        <v>52.80540064482747</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>9.094925749595236</v>
+        <v>29.0821934048322</v>
       </c>
       <c r="C31">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D31">
-        <v>1.768495702044271</v>
+        <v>5.654992185588199</v>
       </c>
       <c r="E31">
-        <v>2.516985837586724</v>
+        <v>8.048385543903795</v>
       </c>
       <c r="F31">
-        <v>1.11199298176759</v>
+        <v>3.555740404150118</v>
       </c>
       <c r="G31">
-        <v>0.6915560823974619</v>
+        <v>2.211339409721528</v>
       </c>
       <c r="H31">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I31">
-        <v>15.53992137935087</v>
+        <v>49.69089484543419</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>6.852904852408923</v>
+        <v>21.91304357944197</v>
       </c>
       <c r="C32">
-        <v>0.170543158184953</v>
+        <v>0.5453336560143358</v>
       </c>
       <c r="D32">
-        <v>1.210023375082922</v>
+        <v>3.86920517961298</v>
       </c>
       <c r="E32">
-        <v>1.761890086310707</v>
+        <v>5.633869880732657</v>
       </c>
       <c r="F32">
-        <v>0.6465075475392963</v>
+        <v>2.067290932645418</v>
       </c>
       <c r="G32">
-        <v>0.8990229071167003</v>
+        <v>2.874741232637986</v>
       </c>
       <c r="H32">
-        <v>0.08456987347001552</v>
+        <v>0.2704230341392986</v>
       </c>
       <c r="I32">
-        <v>11.62546180011352</v>
+        <v>37.17390749522465</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>5.334227088718499</v>
+        <v>17.05687634297735</v>
       </c>
       <c r="C33">
-        <v>0.3031878367732497</v>
+        <v>0.9694820551365971</v>
       </c>
       <c r="D33">
-        <v>1.272075855856405</v>
+        <v>4.067625958054672</v>
       </c>
       <c r="E33">
-        <v>2.296749576797886</v>
+        <v>7.344151808812213</v>
       </c>
       <c r="F33">
-        <v>0.5603065412007233</v>
+        <v>1.791652141626029</v>
       </c>
       <c r="G33">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H33">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I33">
-        <v>10.33595588522687</v>
+        <v>33.05054668438159</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>4.292064469842908</v>
+        <v>13.72442749447791</v>
       </c>
       <c r="C34">
-        <v>0.2084416377816092</v>
+        <v>0.6665189129064105</v>
       </c>
       <c r="D34">
-        <v>1.023865932762472</v>
+        <v>3.273942844287906</v>
       </c>
       <c r="E34">
-        <v>1.478729179582201</v>
+        <v>4.728426507043481</v>
       </c>
       <c r="F34">
-        <v>0.3189437234527195</v>
+        <v>1.01986352677174</v>
       </c>
       <c r="G34">
-        <v>0.4840892576782232</v>
+        <v>1.54793758680507</v>
       </c>
       <c r="H34">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I34">
-        <v>7.83996215048814</v>
+        <v>25.06928608594824</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>3.05449635992814</v>
+        <v>9.767144486884838</v>
       </c>
       <c r="C35">
-        <v>0.2842385969749217</v>
+        <v>0.9088894266905598</v>
       </c>
       <c r="D35">
-        <v>0.7756560096685398</v>
+        <v>2.480259730521141</v>
       </c>
       <c r="E35">
-        <v>0.8809450431553534</v>
+        <v>2.816934940366329</v>
       </c>
       <c r="F35">
-        <v>0.2758432202834331</v>
+        <v>0.8820441312620448</v>
       </c>
       <c r="G35">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H35">
-        <v>0.05074192408200931</v>
+        <v>0.1622538204835792</v>
       </c>
       <c r="I35">
-        <v>5.840588215890494</v>
+        <v>18.67603109349963</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>1.82378458303229</v>
+        <v>5.831785484874003</v>
       </c>
       <c r="C36">
-        <v>0.3695101760673983</v>
+        <v>1.181556254697728</v>
       </c>
       <c r="D36">
-        <v>0.2792361634806743</v>
+        <v>0.8928935029876105</v>
       </c>
       <c r="E36">
-        <v>0.5348594904871787</v>
+        <v>1.710281928079556</v>
       </c>
       <c r="F36">
-        <v>0.2586030190157185</v>
+        <v>0.8269163730581672</v>
       </c>
       <c r="G36">
-        <v>0.3803558453186041</v>
+        <v>1.21623667534684</v>
       </c>
       <c r="H36">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I36">
-        <v>3.663263252095867</v>
+        <v>11.71375482587177</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>1.460398933029616</v>
+        <v>4.669813189015648</v>
       </c>
       <c r="C37">
-        <v>0.2747639770757576</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="D37">
-        <v>0.2482099230939327</v>
+        <v>0.793683113766765</v>
       </c>
       <c r="E37">
-        <v>0.3460855526681746</v>
+        <v>1.106653012286772</v>
       </c>
       <c r="F37">
-        <v>0.241362817748004</v>
+        <v>0.7717886148542895</v>
       </c>
       <c r="G37">
-        <v>0.4495114535583501</v>
+        <v>1.437370616318993</v>
       </c>
       <c r="H37">
-        <v>0.08456987347001552</v>
+        <v>0.2704230341392986</v>
       </c>
       <c r="I37">
-        <v>3.104902530643851</v>
+        <v>9.928324692849309</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.7679092981188596</v>
+        <v>2.455488625210107</v>
       </c>
       <c r="C38">
-        <v>0.3221370765715779</v>
+        <v>1.030074683582634</v>
       </c>
       <c r="D38">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="E38">
-        <v>0.06292464593966812</v>
+        <v>0.2012096385975949</v>
       </c>
       <c r="F38">
-        <v>0.2241226164802894</v>
+        <v>0.7166608566504116</v>
       </c>
       <c r="G38">
-        <v>0.7607116906372081</v>
+        <v>2.432473350693681</v>
       </c>
       <c r="H38">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I38">
-        <v>2.340876744762056</v>
+        <v>7.485254096887361</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.5073686433999604</v>
+        <v>1.622376413085249</v>
       </c>
       <c r="C39">
-        <v>0.1800177780841171</v>
+        <v>0.5756299702373545</v>
       </c>
       <c r="D39">
-        <v>0.1861574423204495</v>
+        <v>0.5952623353250736</v>
       </c>
       <c r="E39">
-        <v>0.06292464593966812</v>
+        <v>0.2012096385975949</v>
       </c>
       <c r="F39">
-        <v>0.1379216101417166</v>
+        <v>0.4410220656310224</v>
       </c>
       <c r="G39">
-        <v>0.5186670617980963</v>
+        <v>1.658504557291146</v>
       </c>
       <c r="H39">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I39">
-        <v>1.609971156378011</v>
+        <v>5.1480895869953</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.5073686433999604</v>
+        <v>1.622376413085249</v>
       </c>
       <c r="C40">
-        <v>0.1136954387899687</v>
+        <v>0.3635557706762239</v>
       </c>
       <c r="D40">
-        <v>0.2171836827071911</v>
+        <v>0.6944727245459195</v>
       </c>
       <c r="E40">
-        <v>0.1887739378190043</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="F40">
-        <v>0.2327427171141467</v>
+        <v>0.7442247357523505</v>
       </c>
       <c r="G40">
-        <v>0.8298672988769544</v>
+        <v>2.653607291665834</v>
       </c>
       <c r="H40">
-        <v>0.0169139746940031</v>
+        <v>0.05408460682785973</v>
       </c>
       <c r="I40">
-        <v>2.106545693401229</v>
+        <v>6.735950458346221</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>1.169004779725584</v>
+        <v>3.738042951770743</v>
       </c>
       <c r="C41">
-        <v>0.09474619899164059</v>
+        <v>0.3029631422301866</v>
       </c>
       <c r="D41">
-        <v>0.5274460865746069</v>
+        <v>1.686576616754376</v>
       </c>
       <c r="E41">
-        <v>0.1887739378190043</v>
+        <v>0.6036289157927845</v>
       </c>
       <c r="F41">
-        <v>0.3620442266220059</v>
+        <v>1.157682922281434</v>
       </c>
       <c r="G41">
-        <v>1.590578989514162</v>
+        <v>5.086080642359514</v>
       </c>
       <c r="H41">
-        <v>0.03382794938800621</v>
+        <v>0.1081692136557195</v>
       </c>
       <c r="I41">
-        <v>3.96642216863501</v>
+        <v>12.68314440484476</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>2.481992552848456</v>
+        <v>7.936490020768378</v>
       </c>
       <c r="C42">
-        <v>0.02842385969749217</v>
+        <v>0.09088894266905598</v>
       </c>
       <c r="D42">
-        <v>0.7136035288950564</v>
+        <v>2.28183895207945</v>
       </c>
       <c r="E42">
-        <v>1.258492918793362</v>
+        <v>4.024192771951897</v>
       </c>
       <c r="F42">
-        <v>0.7240884532440118</v>
+        <v>2.315365844562868</v>
       </c>
       <c r="G42">
-        <v>1.763468010113528</v>
+        <v>5.638915494789897</v>
       </c>
       <c r="H42">
-        <v>0.06765589877601241</v>
+        <v>0.2163384273114389</v>
       </c>
       <c r="I42">
-        <v>7.03772522236792</v>
+        <v>22.50403045413298</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>4.597171289184777</v>
+        <v>14.70004574288729</v>
       </c>
       <c r="C43">
-        <v>0.1326446785882968</v>
+        <v>0.4241483991222612</v>
       </c>
       <c r="D43">
-        <v>1.737469461657529</v>
+        <v>5.555781796367356</v>
       </c>
       <c r="E43">
-        <v>3.020383005104069</v>
+        <v>9.658062652684553</v>
       </c>
       <c r="F43">
-        <v>1.568858315362026</v>
+        <v>5.016625996552881</v>
       </c>
       <c r="G43">
-        <v>2.45502409251099</v>
+        <v>7.850254904511428</v>
       </c>
       <c r="H43">
-        <v>0.2367956457160434</v>
+        <v>0.7571844955900361</v>
       </c>
       <c r="I43">
-        <v>13.74834648812373</v>
+        <v>43.96210398771581</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>7.775081643453447</v>
+        <v>24.86182233025232</v>
       </c>
       <c r="C44">
-        <v>0.1136954387899687</v>
+        <v>0.3635557706762239</v>
       </c>
       <c r="D44">
-        <v>2.016705625138203</v>
+        <v>6.448675299354967</v>
       </c>
       <c r="E44">
-        <v>3.523780172621414</v>
+        <v>11.26773976146531</v>
       </c>
       <c r="F44">
-        <v>1.672299522968313</v>
+        <v>5.347392545776148</v>
       </c>
       <c r="G44">
-        <v>3.388624803747564</v>
+        <v>10.83556310763549</v>
       </c>
       <c r="H44">
-        <v>0.3551934685740652</v>
+        <v>1.135776743385054</v>
       </c>
       <c r="I44">
-        <v>18.84538067529298</v>
+        <v>60.26052555854552</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>8.79324709676283</v>
+        <v>28.11753715921394</v>
       </c>
       <c r="C45">
-        <v>0.3316116964707419</v>
+        <v>1.060370997805653</v>
       </c>
       <c r="D45">
-        <v>2.451072990552585</v>
+        <v>7.837620748446807</v>
       </c>
       <c r="E45">
-        <v>2.516985837586724</v>
+        <v>8.048385543903795</v>
       </c>
       <c r="F45">
-        <v>1.887802038814745</v>
+        <v>6.03648952332462</v>
       </c>
       <c r="G45">
-        <v>3.699825040826421</v>
+        <v>11.83066584201018</v>
       </c>
       <c r="H45">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="I45">
-        <v>19.9680822708121</v>
+        <v>63.8505081307786</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>7.041454010429177</v>
+        <v>22.51595373295339</v>
       </c>
       <c r="C46">
-        <v>0.4074086556640544</v>
+        <v>1.302741511589802</v>
       </c>
       <c r="D46">
-        <v>2.854414115580226</v>
+        <v>9.1273558083178</v>
       </c>
       <c r="E46">
-        <v>1.761890086310707</v>
+        <v>5.633869880732657</v>
       </c>
       <c r="F46">
-        <v>2.28432666797218</v>
+        <v>7.30442796201381</v>
       </c>
       <c r="G46">
-        <v>5.636182071539312</v>
+        <v>18.02241618923046</v>
       </c>
       <c r="H46">
-        <v>0.2875375697980528</v>
+        <v>0.9194383160736154</v>
       </c>
       <c r="I46">
-        <v>20.27321317729371</v>
+        <v>64.82620340091152</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>5.31708625617121</v>
+        <v>17.00206632902177</v>
       </c>
       <c r="C47">
-        <v>0.4547817551598747</v>
+        <v>1.454223082704896</v>
       </c>
       <c r="D47">
-        <v>2.109784346298428</v>
+        <v>6.746306467017504</v>
       </c>
       <c r="E47">
-        <v>1.16410594988386</v>
+        <v>3.722378314055505</v>
       </c>
       <c r="F47">
-        <v>2.439488479381612</v>
+        <v>7.80057778584871</v>
       </c>
       <c r="G47">
-        <v>4.287647710864264</v>
+        <v>13.71030434027347</v>
       </c>
       <c r="H47">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I47">
-        <v>15.99277616878129</v>
+        <v>51.13895620768402</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>5.485066415134705</v>
+        <v>17.53920446578648</v>
       </c>
       <c r="C48">
-        <v>0.2747639770757576</v>
+        <v>0.8785931124675411</v>
       </c>
       <c r="D48">
-        <v>2.295941788618877</v>
+        <v>7.341568802342575</v>
       </c>
       <c r="E48">
-        <v>1.289955241763197</v>
+        <v>4.124797591250696</v>
       </c>
       <c r="F48">
-        <v>2.491209083184756</v>
+        <v>7.965961060460343</v>
       </c>
       <c r="G48">
-        <v>6.15484913333741</v>
+        <v>19.6809207465216</v>
       </c>
       <c r="H48">
-        <v>0.1860537216340341</v>
+        <v>0.5949306751064569</v>
       </c>
       <c r="I48">
-        <v>18.17783936074874</v>
+        <v>58.12597645393569</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>5.659902907117127</v>
+        <v>18.09826660813342</v>
       </c>
       <c r="C49">
-        <v>0.3884594158657262</v>
+        <v>1.242148883143765</v>
       </c>
       <c r="D49">
-        <v>1.768495702044271</v>
+        <v>5.654992185588199</v>
       </c>
       <c r="E49">
-        <v>1.384342210672699</v>
+        <v>4.426612049147087</v>
       </c>
       <c r="F49">
-        <v>1.58609851662974</v>
+        <v>5.071753754756759</v>
       </c>
       <c r="G49">
-        <v>3.734402844946294</v>
+        <v>11.94123281249625</v>
       </c>
       <c r="H49">
-        <v>0.2198816710220403</v>
+        <v>0.7030998887621764</v>
       </c>
       <c r="I49">
-        <v>14.7415832682979</v>
+        <v>47.13810618202766</v>
       </c>
     </row>
   </sheetData>
